--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -287,6 +287,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
